--- a/similarities/split_global/harmonic_similarity_timestamps_10.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,706 +484,734 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_155</t>
+          <t>isophonics_200</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_220</t>
+          <t>isophonics_296</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'C:maj']]</t>
+          <t>['D', 'E', 'A', 'D', 'A', 'E']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['E:7', 'A', 'D']]</t>
+          <t>['C:maj', 'D:maj', 'G:maj', 'C:maj', 'G:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:01:02.940000', '0:01:13')]</t>
+          <t>('0:00:28.356495', '0:00:49.974273')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:18.710045', '0:00:20.463151')]</t>
+          <t>('0:00:12.446000', '0:00:24.195000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-155#t=62.94']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-200#t=28.356495</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-220#t=18.710045']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=12.446</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_124</t>
+          <t>jaah_79</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_144</t>
+          <t>isophonics_156</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
+          <t>['Bb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
+          <t>['A', 'A:7/3', 'D']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:49.480000', '0:01:02.360000')]</t>
+          <t>('0:00:11.950000', '0:00:15.800000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:00.220000', '0:00:07.720000')]</t>
+          <t>('0:00:14.541510', '0:00:23.411533')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-124#t=49.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=11.95</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-144#t=0.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-156#t=14.54151</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>schubert-winterreise_199</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>isophonics_296</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>['G:maj', 'C:maj', 'G/3']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:02:02.780000', '0:02:05')]</t>
+          <t>('0:01:02.200000', '0:01:04.400000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:01:10.380000', '0:01:30.980000')]</t>
+          <t>('0:00:05.146000', '0:00:09.474000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=122.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=62.2</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=70.38']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=5.146</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_276</t>
+          <t>isophonics_78</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_72</t>
+          <t>schubert-winterreise_17</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D', 'G']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj', 'G:maj', 'C:maj']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:07.834297', '0:00:15.380782')]</t>
+          <t>('0:00:39.724104', '0:00:47.769818')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:08.900000', '0:00:11.160000')]</t>
+          <t>('0:02:18.020000', '0:02:22.340000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-276#t=7.834297']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-78#t=39.724104</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-72#t=8.9']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-17#t=138.02</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_269</t>
+          <t>schubert-winterreise_132</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>schubert-winterreise_63</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min']]</t>
+          <t>['F:maj', 'C:7/A#', 'F:maj/A']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:35.888000', '0:00:38.359000')]</t>
+          <t>('0:01:14.900000', '0:01:26.120000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:01:27.680000', '0:01:38.020000')]</t>
+          <t>('0:04:13.840000', '0:04:19.880000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-269#t=35.888']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=74.9</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=87.68']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=253.84</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
+          <t>isophonics_252</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jaah_52</t>
+          <t>schubert-winterreise_65</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['B:7', 'E:maj/B', 'E:min/B', 'B:maj']]</t>
+          <t>['C:min', 'G:maj', 'C:min']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb', 'Bb:min', 'F']]</t>
+          <t>['D#:min', 'A#:maj', 'D#:min']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:04.140000', '0:00:13.420000')]</t>
+          <t>('0:00:07.523000', '0:00:10.397000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:30.390000', '0:00:34.950000')]</t>
+          <t>('0:00:00.780000', '0:00:05.980000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=4.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-252#t=7.523</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=30.39']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=0.78</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_294</t>
+          <t>isophonics_196</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_236</t>
+          <t>schubert-winterreise_199</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'C/3']]</t>
+          <t>['D', 'G/5', 'D']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj', 'G:maj']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:50.779465', '0:00:53.344308')]</t>
+          <t>('0:00:12.707687', '0:00:25.501882')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:09.535000', '0:00:12.702000')]</t>
+          <t>('0:01:02.200000', '0:01:04.400000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-294#t=50.779465']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-196#t=12.707687</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-236#t=9.535']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=62.2</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_252</t>
+          <t>jaah_32</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_150</t>
+          <t>jaah_3</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:maj', 'C:min']]</t>
+          <t>['G', 'D:7', 'G']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:07.523000', '0:00:10.397000')]</t>
+          <t>('0:00:11.550000', '0:00:25.740000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:01.560000', '0:00:06.900000')]</t>
+          <t>('0:00:15.530000', '0:00:16.900000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-252#t=7.523']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-32#t=11.55</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-150#t=1.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=15.53</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_6</t>
+          <t>isophonics_296</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
+          <t>schubert-winterreise_112</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['A:7', 'D', 'G/5', 'D']]</t>
+          <t>['G:maj', 'C:maj', 'G/3']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['B:7/A', 'E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['D#:maj', 'G#:maj', 'D#:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:18.434000', '0:00:23.353000')]</t>
+          <t>('0:00:05.146000', '0:00:09.474000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:54.580000', '0:01:02.320000')]</t>
+          <t>('0:01:58.400000', '0:02:01.720000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-6#t=18.434']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=5.146</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=54.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=118.4</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jaah_77</t>
+          <t>schubert-winterreise_12</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>schubert-winterreise_114</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'G:7', 'C']]</t>
+          <t>['B:min', 'F#:(3,5,b7,b9)/B', 'B:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B']]</t>
+          <t>['D:min', 'A:(3,5,b7,b9)', 'D:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:18.870000', '0:00:25.690000')]</t>
+          <t>('0:00:30.060000', '0:00:43.780000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:01:15.560000', '0:01:28')]</t>
+          <t>('0:01:38.700000', '0:01:58.800000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-77#t=18.87']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-12#t=30.06</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=75.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=98.7</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>isophonics_238</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
+          <t>schubert-winterreise_156</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>['B:dim7', 'C', 'F']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['C:dim7', 'C#:maj', 'F#:maj/A#']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:47.580000', '0:00:50.040000')]</t>
+          <t>('0:00:17.769637', '0:00:22.996281')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:36.660000', '0:00:43.940000')]</t>
+          <t>('0:00:18.140000', '0:00:21.440000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=47.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-238#t=17.769637</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-45#t=36.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=18.14</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:5By7Pzgl6TMuVJG168VWzS</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_54</t>
+          <t>schubert-winterreise_188</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_34</t>
+          <t>schubert-winterreise_120</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min'], ['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G', 'C:min'], ['C:min/G', 'G:7', 'C:min']]</t>
+          <t>['A#:min', 'F:7/C', 'A#:min/C#']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:09.240000', '0:00:16.260000'), ('0:00:18.420000', '0:00:24.340000')]</t>
+          <t>('0:00:09.260000', '0:00:13.900000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:11.820000', '0:00:18.540000'), ('0:00:21.940000', '0:00:27.520000')]</t>
+          <t>('0:00:02.600000', '0:00:04.500000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-54#t=9.24', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-54#t=18.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=9.26</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=11.82', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=21.94']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-120#t=2.6</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>jaah_39</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_147</t>
+          <t>isophonics_56</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['F#:maj/A#', 'C#:7', 'F#:maj']]</t>
+          <t>['Bb:7', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
+          <t>['D:7', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:17.480000', '0:00:19.720000')]</t>
+          <t>('0:00:48.180000', '0:00:50.270000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:19.780000', '0:00:23.120000')]</t>
+          <t>('0:01:58.584331', '0:02:07.280204')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=17.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=48.18</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-147#t=19.78']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-56#t=118.584331</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_84</t>
+          <t>jaah_36</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_152</t>
+          <t>jaah_15</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'A#:maj', 'D#:maj']]</t>
+          <t>['A:min7', 'D:7', 'G', 'C:7', 'G']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['A/3', 'E/5', 'A/3']]</t>
+          <t>['D:min7', 'G:7', 'C', 'F:7', 'C']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:00.780000', '0:00:19.180000')]</t>
+          <t>('0:00:41.520000', '0:00:50.490000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:14.168000', '0:00:18.573000')]</t>
+          <t>('0:00:11.260000', '0:00:17.460000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=0.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-36#t=41.52</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-152#t=14.168']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-15#t=11.26</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>schubert-winterreise_99</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jaah_86</t>
+          <t>isophonics_140</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb', 'F:7', 'Bb']]</t>
+          <t>['G', 'C', 'G']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:01:04.480000', '0:01:12.760000')]</t>
+          <t>('0:01:15.800000', '0:01:19.600000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:12.430000', '0:00:17.230000')]</t>
+          <t>('0:00:00.465952', '0:00:05.272756')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=64.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-99#t=75.8</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-86#t=12.43']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-140#t=0.465952</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
